--- a/dss/PyomoSolver/solution.xlsx
+++ b/dss/PyomoSolver/solution.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,62 +415,29 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-60.843</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-60.901</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-77</v>
-      </c>
-      <c r="E4">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +453,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -494,9 +461,17 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
